--- a/软件工程/数据存储/数据存储表.xlsx
+++ b/软件工程/数据存储/数据存储表.xlsx
@@ -7,136 +7,128 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
-  <si>
-    <t>表格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户资料表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤镜种类表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤镜名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤镜种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-偏好表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片uri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postPictureUUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postPictureUri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实只有一种滤镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backgroundName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滤镜种类表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滤镜名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滤镜种类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-偏好表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filterName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filterType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filterIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理前图片表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片uri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prePictureUUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prePictureUri</t>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端Sqlite数据库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台数据库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -144,63 +136,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postPictureUUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postPictureUri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-提交图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理前图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理后图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户和偏好表多对多关系可以，暂时不写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理前-处理后图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理后图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pictureUri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postPictureUUID</t>
+    <t>用户-历史图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片UUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pictureUUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pictureURI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个实际上是用户处理后的图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要也可以，作为待开发的扩展功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,279 +510,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
       <c r="D7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D25" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/软件工程/数据存储/数据存储表.xlsx
+++ b/软件工程/数据存储/数据存储表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,14 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户-偏好表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,14 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图片uuid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,15 +136,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pictureURI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这个实际上是用户处理后的图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不要也可以，作为待开发的扩展功能</t>
+    <t>submitUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sitePictureURI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F21" activeCellId="1" sqref="D22 F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,7 +511,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -538,7 +522,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -552,18 +536,18 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -571,10 +555,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -582,24 +563,18 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -607,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -615,52 +590,61 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>27</v>
+      <c r="D17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -668,60 +652,24 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
         <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
